--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -391,13 +387,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -405,7 +404,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -413,18 +412,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -24,25 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>슬라임</t>
+    <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10atk</t>
+    <t>DEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5atk,8def</t>
+    <t>POW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1dbuf</t>
+    <t>WEAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,53 +369,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>WEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKT, DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟에 해당 수치 곱젹용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외에는 갯수적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +381,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -391,34 +406,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -426,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스텟에 해당 수치 곱젹용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외에는 갯수적용</t>
+    <t>스텟에 해당 수치 합젹용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +380,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -430,9 +426,6 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -407,7 +407,7 @@
         <v>10001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -421,10 +421,10 @@
         <v>10002</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -432,7 +432,7 @@
         <v>10003</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,11 +42,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AKT, DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텟에 해당 수치 합젹용</t>
+    <t>VULNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPAIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIMECARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노예상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTRAINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광신자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSCIOUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물하초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,18 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -401,54 +468,265 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="D6">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10008</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10009</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10010</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10011</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10012</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10013</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10014</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10015</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10017</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10018</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10019</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>STEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,10 +469,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -562,10 +550,7 @@
         <v>10006</v>
       </c>
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -576,13 +561,13 @@
         <v>10007</v>
       </c>
       <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -592,8 +577,11 @@
       <c r="C9">
         <v>6</v>
       </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -601,10 +589,10 @@
         <v>10009</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -614,50 +602,47 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>5</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="K14">
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -665,68 +650,32 @@
         <v>10014</v>
       </c>
       <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="B16">
+        <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
-      <c r="K17">
+      <c r="D17">
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10017</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10018</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10019</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>대형슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,21 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -466,16 +461,13 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -488,33 +480,33 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -524,11 +516,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -541,22 +533,22 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -566,11 +558,11 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -580,22 +572,22 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -605,11 +597,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -619,63 +611,63 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>18</v>
+      <c r="L17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/MonsterSkill.xlsx
+++ b/Assets/Excel/MonsterSkill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,42 @@
   </si>
   <si>
     <t>동물하초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,12 +510,6 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
@@ -488,36 +518,33 @@
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4">
-        <v>8</v>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -525,27 +552,24 @@
         <v>10005</v>
       </c>
       <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7">
-        <v>11</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -553,24 +577,24 @@
         <v>10007</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+      <c r="B9">
+        <v>11</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -581,24 +605,27 @@
         <v>10009</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -606,10 +633,7 @@
         <v>10011</v>
       </c>
       <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -619,7 +643,10 @@
       <c r="A13">
         <v>10012</v>
       </c>
-      <c r="I13">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
@@ -630,44 +657,98 @@
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15">
-        <v>6</v>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
-      <c r="B16">
-        <v>6</v>
+      <c r="J16">
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
-      <c r="D17">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10017</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10018</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
